--- a/CourseWork/tests.xlsx
+++ b/CourseWork/tests.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20MOA\4KYRS\1SEMESTR\AI\ArtificialIntelligence\CourseWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\AI\ArtificialIntelligence\CourseWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F48582-67D5-4674-A22B-4AC47C69EE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="690" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>d</t>
   </si>
@@ -36,25 +35,28 @@
     <t>IDS</t>
   </si>
   <si>
-    <t>ME</t>
+    <t>https://www.wolframalpha.com/input?i2d=true&amp;i=solve+N+%2B+1+%3D+Sum%5BPower%5Bb%2Ci%5D%2C%7Bi%2C0%2Cd%7D%5D+for+b+where+N+%3D+66+and+d+%3D+4</t>
   </si>
   <si>
-    <t>M</t>
+    <t>Стоимость поиска N</t>
   </si>
   <si>
-    <t>Max O and C</t>
+    <t>A*(h1)</t>
   </si>
   <si>
-    <t>Count of Iterations</t>
+    <t>A*(h2)</t>
   </si>
   <si>
-    <t>https://www.wolframalpha.com/input?i2d=true&amp;i=solve+N+%2B+1+%3D+Sum%5BPower%5Bb%2Ci%5D%2C%7Bi%2C0%2Cd%7D%5D+for+b+where+N+%3D+66+and+d+%3D+4</t>
+    <t>Количество итераций</t>
+  </si>
+  <si>
+    <t>Эффективный коэффицент ветвления</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,13 +159,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -173,7 +176,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -190,6 +193,3361 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1638-48F7-ACC8-A4F0FAB78252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1638-48F7-ACC8-A4F0FAB78252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*(h1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1638-48F7-ACC8-A4F0FAB78252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*(h2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1638-48F7-ACC8-A4F0FAB78252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="396685552"/>
+        <c:axId val="396688176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="396685552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396688176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="396688176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396685552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7364031628277508E-2"/>
+          <c:y val="4.2328042328042326E-2"/>
+          <c:w val="0.72401554553872394"/>
+          <c:h val="0.85524542765487643"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7A5-4CEE-BD4F-D027E0AAD8C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E7A5-4CEE-BD4F-D027E0AAD8C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*(h1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E7A5-4CEE-BD4F-D027E0AAD8C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*(h2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E7A5-4CEE-BD4F-D027E0AAD8C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="534705232"/>
+        <c:axId val="534705560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="534705232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534705560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="534705560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534705232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D521-48F1-BBF6-721A7BA1B486}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D521-48F1-BBF6-721A7BA1B486}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*(h1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D521-48F1-BBF6-721A7BA1B486}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*(h2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$16:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D521-48F1-BBF6-721A7BA1B486}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="536220896"/>
+        <c:axId val="536227456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="536220896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536227456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="536227456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536220896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="b≈2.5289"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8534400" y="6667500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,11 +3812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,22 +3825,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -495,10 +3853,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -512,13 +3870,13 @@
         <v>2</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -873,145 +4231,263 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="10">
+        <v>2.52</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2.02</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2.15</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1.96</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2.38</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1.94</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.14</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1.84</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.75</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="1">
+        <v>7</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1.91</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1.66</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1.72</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1.64</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="1">
+        <v>8</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1.84</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1.67</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1.59</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1.47</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1.76</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1.62</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1.55</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1.47</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1.56</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1.4</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="1">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1.64</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1.54</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1.46</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1.37</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="1">
+        <v>12</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1.49</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1.43</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1.37</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="1">
+        <v>13</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1.57</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1.47</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1.33</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O36"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{2C7C6D8D-4402-4131-A7C1-683EF3902A74}"/>
+    <hyperlink ref="N2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>